--- a/pengxiang-edu-java/pengxiangEDU/src/main/resources/static/file/stu_temp.xlsx
+++ b/pengxiang-edu-java/pengxiangEDU/src/main/resources/static/file/stu_temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2022_ChenEnlai\duYan\lab_Project\pengxiang\pengxiangEDU\src\main\resources\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E65A6AC-7B6C-4F32-B1E7-AB0589BACB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C82306-0674-4E6A-B1FD-CEADE2CC7104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试数据" sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.625" defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/pengxiang-edu-java/pengxiangEDU/src/main/resources/static/file/stu_temp.xlsx
+++ b/pengxiang-edu-java/pengxiangEDU/src/main/resources/static/file/stu_temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2022_ChenEnlai\duYan\lab_Project\pengxiang\pengxiangEDU\src\main\resources\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C82306-0674-4E6A-B1FD-CEADE2CC7104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C05B351-4932-4BE3-AF8A-922FA73C8A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>院校</t>
   </si>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>班型(1就业 0升学)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -501,15 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,8 +586,11 @@
       <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -608,7 +615,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -632,7 +639,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
